--- a/spliced/falling/2023-03-25_18-01-29/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-29/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.674985194206238</v>
+        <v>-3.729709470272064</v>
       </c>
       <c r="B2" t="n">
-        <v>9.404587173461914</v>
+        <v>9.457800364494323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3419130772352217</v>
+        <v>0.187229474633932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.945914745330811</v>
+        <v>-3.674985194206238</v>
       </c>
       <c r="B3" t="n">
-        <v>9.500829362869263</v>
+        <v>9.404587173461914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6805746570229532</v>
+        <v>0.3419130772352217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.8448965549469</v>
+        <v>-3.945914745330811</v>
       </c>
       <c r="B4" t="n">
-        <v>9.112732887268068</v>
+        <v>9.500829362869263</v>
       </c>
       <c r="C4" t="n">
-        <v>1.50640323758125</v>
+        <v>0.6805746570229532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.954125237464904</v>
+        <v>-3.8448965549469</v>
       </c>
       <c r="B5" t="n">
-        <v>8.554272603988649</v>
+        <v>9.112732887268068</v>
       </c>
       <c r="C5" t="n">
-        <v>2.520113927125929</v>
+        <v>1.50640323758125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.40533800125122</v>
+        <v>-3.954125237464904</v>
       </c>
       <c r="B6" t="n">
-        <v>8.189027309417723</v>
+        <v>8.554272603988649</v>
       </c>
       <c r="C6" t="n">
-        <v>3.551703810691835</v>
+        <v>2.520113927125929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.528182744979861</v>
+        <v>-4.40533800125122</v>
       </c>
       <c r="B7" t="n">
-        <v>7.154003858566278</v>
+        <v>8.189027309417723</v>
       </c>
       <c r="C7" t="n">
-        <v>4.620719850063325</v>
+        <v>3.551703810691835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.236727142333985</v>
+        <v>-4.528182744979861</v>
       </c>
       <c r="B8" t="n">
-        <v>5.354243278503416</v>
+        <v>7.154003858566278</v>
       </c>
       <c r="C8" t="n">
-        <v>5.061923789978028</v>
+        <v>4.620719850063325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.258063554763795</v>
+        <v>-5.236727142333985</v>
       </c>
       <c r="B9" t="n">
-        <v>5.088717103004436</v>
+        <v>5.354243278503416</v>
       </c>
       <c r="C9" t="n">
-        <v>5.500368356704722</v>
+        <v>5.061923789978028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.872933006286623</v>
+        <v>-5.258063554763795</v>
       </c>
       <c r="B10" t="n">
-        <v>10.60090007781982</v>
+        <v>5.088717103004436</v>
       </c>
       <c r="C10" t="n">
-        <v>2.667490434646607</v>
+        <v>5.500368356704722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9181296348571681</v>
+        <v>-4.872933006286623</v>
       </c>
       <c r="B11" t="n">
-        <v>8.491318988800044</v>
+        <v>10.60090007781982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2766812086105288</v>
+        <v>2.667490434646607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.330888652801525</v>
+        <v>-0.9181296348571681</v>
       </c>
       <c r="B12" t="n">
-        <v>7.476689434051512</v>
+        <v>8.491318988800044</v>
       </c>
       <c r="C12" t="n">
-        <v>3.909529781341558</v>
+        <v>0.2766812086105288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17.60857832431794</v>
+        <v>7.330888652801525</v>
       </c>
       <c r="B13" t="n">
-        <v>8.065273070335389</v>
+        <v>7.476689434051512</v>
       </c>
       <c r="C13" t="n">
-        <v>5.904095327854156</v>
+        <v>3.909529781341558</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.862465858459505</v>
+        <v>17.60857832431794</v>
       </c>
       <c r="B14" t="n">
-        <v>4.974191069602975</v>
+        <v>8.065273070335389</v>
       </c>
       <c r="C14" t="n">
-        <v>2.124806880950939</v>
+        <v>5.904095327854156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.792156529426575</v>
+        <v>8.862465858459505</v>
       </c>
       <c r="B15" t="n">
-        <v>5.206499457359316</v>
+        <v>4.974191069602975</v>
       </c>
       <c r="C15" t="n">
-        <v>1.24618867635727</v>
+        <v>2.124806880950939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.776297664642335</v>
+        <v>5.792156529426575</v>
       </c>
       <c r="B16" t="n">
-        <v>7.347594261169435</v>
+        <v>5.206499457359316</v>
       </c>
       <c r="C16" t="n">
-        <v>2.1927396774292</v>
+        <v>1.24618867635727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.413076007366181</v>
+        <v>6.776297664642335</v>
       </c>
       <c r="B17" t="n">
-        <v>7.669743299484253</v>
+        <v>7.347594261169435</v>
       </c>
       <c r="C17" t="n">
-        <v>3.059547257423401</v>
+        <v>2.1927396774292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.093721461296081</v>
+        <v>7.413076007366181</v>
       </c>
       <c r="B18" t="n">
-        <v>6.682996535301208</v>
+        <v>7.669743299484253</v>
       </c>
       <c r="C18" t="n">
-        <v>3.730484533309937</v>
+        <v>3.059547257423401</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.205834448337556</v>
+        <v>7.093721461296081</v>
       </c>
       <c r="B19" t="n">
-        <v>6.63232797384262</v>
+        <v>6.682996535301208</v>
       </c>
       <c r="C19" t="n">
-        <v>3.768983215093614</v>
+        <v>3.730484533309937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.440388536453247</v>
+        <v>6.205834448337556</v>
       </c>
       <c r="B20" t="n">
-        <v>7.528226757049561</v>
+        <v>6.63232797384262</v>
       </c>
       <c r="C20" t="n">
-        <v>3.279619407653808</v>
+        <v>3.768983215093614</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.920149981975555</v>
+        <v>5.440388536453247</v>
       </c>
       <c r="B21" t="n">
-        <v>7.996720600128174</v>
+        <v>7.528226757049561</v>
       </c>
       <c r="C21" t="n">
-        <v>3.424616485834122</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4.804476237297058</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7.717824459075928</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.153643488883973</v>
+        <v>3.279619407653808</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-29/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-29/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.729709470272064</v>
+        <v>-3.557232761383056</v>
       </c>
       <c r="B2" t="n">
-        <v>9.457800364494323</v>
+        <v>9.801355552673339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187229474633932</v>
+        <v>0.01679347753524785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.674985194206238</v>
+        <v>-3.684299826622009</v>
       </c>
       <c r="B3" t="n">
-        <v>9.404587173461914</v>
+        <v>9.67076587677002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3419130772352217</v>
+        <v>0.04418391920626155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.945914745330811</v>
+        <v>-3.839793586730957</v>
       </c>
       <c r="B4" t="n">
-        <v>9.500829362869263</v>
+        <v>9.701957559585571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6805746570229532</v>
+        <v>0.08396954610943785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.8448965549469</v>
+        <v>-3.847879505157471</v>
       </c>
       <c r="B5" t="n">
-        <v>9.112732887268068</v>
+        <v>9.791793012619019</v>
       </c>
       <c r="C5" t="n">
-        <v>1.50640323758125</v>
+        <v>0.2833944983780385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.954125237464904</v>
+        <v>-3.597369003295899</v>
       </c>
       <c r="B6" t="n">
-        <v>8.554272603988649</v>
+        <v>9.792463493347167</v>
       </c>
       <c r="C6" t="n">
-        <v>2.520113927125929</v>
+        <v>0.5209171175956726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.40533800125122</v>
+        <v>-3.581359481811524</v>
       </c>
       <c r="B7" t="n">
-        <v>8.189027309417723</v>
+        <v>9.727484250068665</v>
       </c>
       <c r="C7" t="n">
-        <v>3.551703810691835</v>
+        <v>0.4699014097452164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.528182744979861</v>
+        <v>-3.805133938789368</v>
       </c>
       <c r="B8" t="n">
-        <v>7.154003858566278</v>
+        <v>9.641714334487917</v>
       </c>
       <c r="C8" t="n">
-        <v>4.620719850063325</v>
+        <v>0.3316636346280575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.236727142333985</v>
+        <v>-3.644986343383789</v>
       </c>
       <c r="B9" t="n">
-        <v>5.354243278503416</v>
+        <v>9.586582708358765</v>
       </c>
       <c r="C9" t="n">
-        <v>5.061923789978028</v>
+        <v>0.1923969518393278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.258063554763795</v>
+        <v>-3.727581739425659</v>
       </c>
       <c r="B10" t="n">
-        <v>5.088717103004436</v>
+        <v>9.62705430984497</v>
       </c>
       <c r="C10" t="n">
-        <v>5.500368356704722</v>
+        <v>0.3099611997604369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.872933006286623</v>
+        <v>-3.772140645980835</v>
       </c>
       <c r="B11" t="n">
-        <v>10.60090007781982</v>
+        <v>9.524589729309081</v>
       </c>
       <c r="C11" t="n">
-        <v>2.667490434646607</v>
+        <v>0.2081888042390346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.9181296348571681</v>
+        <v>-4.169818592071533</v>
       </c>
       <c r="B12" t="n">
-        <v>8.491318988800044</v>
+        <v>9.43976936340332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2766812086105288</v>
+        <v>0.4335370913147927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.330888652801525</v>
+        <v>-3.96463143825531</v>
       </c>
       <c r="B13" t="n">
-        <v>7.476689434051512</v>
+        <v>9.59680449962616</v>
       </c>
       <c r="C13" t="n">
-        <v>3.909529781341558</v>
+        <v>0.3559434115886688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17.60857832431794</v>
+        <v>-3.995069694519043</v>
       </c>
       <c r="B14" t="n">
-        <v>8.065273070335389</v>
+        <v>9.550227546691893</v>
       </c>
       <c r="C14" t="n">
-        <v>5.904095327854156</v>
+        <v>0.2403170883655548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.862465858459505</v>
+        <v>-3.729709470272064</v>
       </c>
       <c r="B15" t="n">
-        <v>4.974191069602975</v>
+        <v>9.457800364494323</v>
       </c>
       <c r="C15" t="n">
-        <v>2.124806880950939</v>
+        <v>0.187229474633932</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.792156529426575</v>
+        <v>-3.674985194206238</v>
       </c>
       <c r="B16" t="n">
-        <v>5.206499457359316</v>
+        <v>9.404587173461914</v>
       </c>
       <c r="C16" t="n">
-        <v>1.24618867635727</v>
+        <v>0.3419130772352217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.776297664642335</v>
+        <v>-3.945914745330811</v>
       </c>
       <c r="B17" t="n">
-        <v>7.347594261169435</v>
+        <v>9.500829362869263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.1927396774292</v>
+        <v>0.6805746570229532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.413076007366181</v>
+        <v>-3.8448965549469</v>
       </c>
       <c r="B18" t="n">
-        <v>7.669743299484253</v>
+        <v>9.112732887268068</v>
       </c>
       <c r="C18" t="n">
-        <v>3.059547257423401</v>
+        <v>1.50640323758125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.093721461296081</v>
+        <v>-3.954125237464904</v>
       </c>
       <c r="B19" t="n">
-        <v>6.682996535301208</v>
+        <v>8.554272603988649</v>
       </c>
       <c r="C19" t="n">
-        <v>3.730484533309937</v>
+        <v>2.520113927125929</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.205834448337556</v>
+        <v>-4.40533800125122</v>
       </c>
       <c r="B20" t="n">
-        <v>6.63232797384262</v>
+        <v>8.189027309417723</v>
       </c>
       <c r="C20" t="n">
-        <v>3.768983215093614</v>
+        <v>3.551703810691835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.440388536453247</v>
+        <v>-4.528182744979861</v>
       </c>
       <c r="B21" t="n">
-        <v>7.528226757049561</v>
+        <v>7.154003858566278</v>
       </c>
       <c r="C21" t="n">
-        <v>3.279619407653808</v>
+        <v>4.620719850063325</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-5.236727142333985</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.354243278503416</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.061923789978028</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-5.258063554763795</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.088717103004436</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.500368356704722</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-4.872933006286623</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10.60090007781982</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.667490434646607</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.9181296348571681</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.491318988800044</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2766812086105288</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.330888652801525</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.476689434051512</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.909529781341558</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17.60857832431794</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.065273070335389</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.904095327854156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8.862465858459505</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.974191069602975</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.124806880950939</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.792156529426575</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.206499457359316</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.24618867635727</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6.776297664642335</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.347594261169435</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.1927396774292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7.413076007366181</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.669743299484253</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.059547257423401</v>
       </c>
     </row>
   </sheetData>
